--- a/DBs_tratados/2016_coleta_tipos_residuos.xlsx
+++ b/DBs_tratados/2016_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,92 +1520,46 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(Vazio)</t>
+          <t>Total Geral</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>463884.8</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>471502.18</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>494948.04</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>462757.39</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>449509.7</v>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>451108.13</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>432143.07</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>461709.39</v>
       </c>
       <c r="J24" t="n">
-        <v>2.96</v>
+        <v>440561.52</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>437893.52</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396496.69</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>490428.44</v>
       </c>
       <c r="N24" t="n">
-        <v>8.01</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>463884.8</v>
-      </c>
-      <c r="C25" t="n">
-        <v>471502.18</v>
-      </c>
-      <c r="D25" t="n">
-        <v>494948.04</v>
-      </c>
-      <c r="E25" t="n">
-        <v>462757.39</v>
-      </c>
-      <c r="F25" t="n">
-        <v>449509.7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>451108.13</v>
-      </c>
-      <c r="H25" t="n">
-        <v>432143.07</v>
-      </c>
-      <c r="I25" t="n">
-        <v>461709.39</v>
-      </c>
-      <c r="J25" t="n">
-        <v>440561.52</v>
-      </c>
-      <c r="K25" t="n">
-        <v>437893.52</v>
-      </c>
-      <c r="L25" t="n">
-        <v>396496.69</v>
-      </c>
-      <c r="M25" t="n">
-        <v>490428.44</v>
-      </c>
-      <c r="N25" t="n">
         <v>5452942.870000001</v>
       </c>
     </row>

--- a/DBs_tratados/2016_coleta_tipos_residuos.xlsx
+++ b/DBs_tratados/2016_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,46 +1520,92 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>(Vazio)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Total Geral</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>463884.8</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>471502.18</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>494948.04</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E25" t="n">
         <v>462757.39</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F25" t="n">
         <v>449509.7</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>451108.13</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>432143.07</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>461709.39</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J25" t="n">
         <v>440561.52</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K25" t="n">
         <v>437893.52</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>396496.69</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>490428.44</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N25" t="n">
         <v>5452942.870000001</v>
       </c>
     </row>
